--- a/input_files/Behavior_Immune_data/AMA 27 GI tissues Poly IC 073013.xlsx
+++ b/input_files/Behavior_Immune_data/AMA 27 GI tissues Poly IC 073013.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephboktor/Documents/NHP_MIA_Omics/input_files/Behavior_Immune_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954D1414-6C54-F84A-971C-3236FA2E7F17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="14370" tabRatio="717" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32920" windowHeight="18040" tabRatio="717" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +39,23 @@
     <sheet name="VEGF" sheetId="18" r:id="rId24"/>
     <sheet name="Sheet2" sheetId="19" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="141">
   <si>
     <t>G-CSF (18)</t>
   </si>
@@ -402,12 +419,72 @@
   <si>
     <t>Jejunum</t>
   </si>
+  <si>
+    <t>Ileum</t>
+  </si>
+  <si>
+    <t>39813_Ileum</t>
+  </si>
+  <si>
+    <t>39827_Ileum</t>
+  </si>
+  <si>
+    <t>39988_Ileum</t>
+  </si>
+  <si>
+    <t>40318_Ileum</t>
+  </si>
+  <si>
+    <t>40360_Ileum</t>
+  </si>
+  <si>
+    <t>40476_Ileum</t>
+  </si>
+  <si>
+    <t>39673_Ileum</t>
+  </si>
+  <si>
+    <t>40212_Ileum</t>
+  </si>
+  <si>
+    <t>40302_Ileum</t>
+  </si>
+  <si>
+    <t>40390_Ileum</t>
+  </si>
+  <si>
+    <t>40395_Ileum</t>
+  </si>
+  <si>
+    <t>40479_Ileum</t>
+  </si>
+  <si>
+    <t>40355_Ileum</t>
+  </si>
+  <si>
+    <t>40440_Ileum</t>
+  </si>
+  <si>
+    <t>40473_Ileum</t>
+  </si>
+  <si>
+    <t>40478_Ileum</t>
+  </si>
+  <si>
+    <t>40295_Ileum</t>
+  </si>
+  <si>
+    <t>39689_Ileum</t>
+  </si>
+  <si>
+    <t>40482_Ileum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +763,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -732,7 +817,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -764,9 +849,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -798,6 +901,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -973,23 +1094,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -1075,7 +1196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>39813</v>
       </c>
@@ -1161,7 +1282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>39827</v>
       </c>
@@ -1247,7 +1368,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>39988</v>
       </c>
@@ -1333,7 +1454,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>40318</v>
       </c>
@@ -1419,7 +1540,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40360</v>
       </c>
@@ -1505,7 +1626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>40476</v>
       </c>
@@ -1591,7 +1712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>39673</v>
       </c>
@@ -1677,7 +1798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>40212</v>
       </c>
@@ -1763,7 +1884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>40302</v>
       </c>
@@ -1849,7 +1970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>40390</v>
       </c>
@@ -1935,7 +2056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>40395</v>
       </c>
@@ -2021,7 +2142,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" thickBot="1">
+    <row r="13" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>40479</v>
       </c>
@@ -2107,7 +2228,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>40335</v>
       </c>
@@ -2193,7 +2314,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>40440</v>
       </c>
@@ -2279,7 +2400,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>40473</v>
       </c>
@@ -2365,7 +2486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>40478</v>
       </c>
@@ -2451,7 +2572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>39689</v>
       </c>
@@ -2537,7 +2658,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>40228</v>
       </c>
@@ -2623,7 +2744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>40295</v>
       </c>
@@ -2709,7 +2830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.75" thickBot="1">
+    <row r="21" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40482</v>
       </c>
@@ -2795,7 +2916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>39813</v>
       </c>
@@ -2806,10 +2927,10 @@
         <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="F22">
         <v>25</v>
@@ -2881,7 +3002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>39827</v>
       </c>
@@ -2892,10 +3013,10 @@
         <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="F23">
         <v>20.5</v>
@@ -2967,7 +3088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>39988</v>
       </c>
@@ -2978,10 +3099,10 @@
         <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="F24">
         <v>17</v>
@@ -3053,7 +3174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>40318</v>
       </c>
@@ -3064,10 +3185,10 @@
         <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="F25">
         <v>16</v>
@@ -3139,7 +3260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>40360</v>
       </c>
@@ -3150,10 +3271,10 @@
         <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="F26">
         <v>12</v>
@@ -3225,7 +3346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>40476</v>
       </c>
@@ -3236,10 +3357,10 @@
         <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="F27">
         <v>142.5</v>
@@ -3311,7 +3432,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>39673</v>
       </c>
@@ -3322,10 +3443,10 @@
         <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -3397,7 +3518,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>40212</v>
       </c>
@@ -3408,10 +3529,10 @@
         <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="F29">
         <v>13</v>
@@ -3483,7 +3604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>40302</v>
       </c>
@@ -3494,10 +3615,10 @@
         <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -3569,7 +3690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>40390</v>
       </c>
@@ -3580,10 +3701,10 @@
         <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="F31">
         <v>12</v>
@@ -3655,7 +3776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>40395</v>
       </c>
@@ -3666,10 +3787,10 @@
         <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="F32">
         <v>44</v>
@@ -3741,7 +3862,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15.75" thickBot="1">
+    <row r="33" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>40479</v>
       </c>
@@ -3752,10 +3873,10 @@
         <v>107</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="F33">
         <v>10</v>
@@ -3827,7 +3948,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>40335</v>
       </c>
@@ -3838,10 +3959,10 @@
         <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="F34">
         <v>19</v>
@@ -3913,7 +4034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>40440</v>
       </c>
@@ -3924,10 +4045,10 @@
         <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="F35">
         <v>12.5</v>
@@ -3999,7 +4120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>40473</v>
       </c>
@@ -4010,10 +4131,10 @@
         <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="F36">
         <v>13</v>
@@ -4085,7 +4206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>40478</v>
       </c>
@@ -4096,10 +4217,10 @@
         <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="F37">
         <v>26</v>
@@ -4171,7 +4292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>40295</v>
       </c>
@@ -4182,10 +4303,10 @@
         <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="F38">
         <v>30</v>
@@ -4257,7 +4378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39689</v>
       </c>
@@ -4268,10 +4389,10 @@
         <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="F39">
         <v>37</v>
@@ -4343,7 +4464,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15.75" thickBot="1">
+    <row r="40" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40482</v>
       </c>
@@ -4354,10 +4475,10 @@
         <v>112</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="F40">
         <v>23</v>
@@ -4429,7 +4550,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39813</v>
       </c>
@@ -4440,7 +4561,7 @@
         <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
         <v>32</v>
@@ -4515,7 +4636,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39827</v>
       </c>
@@ -4526,7 +4647,7 @@
         <v>110</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
         <v>60</v>
@@ -4601,7 +4722,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>39988</v>
       </c>
@@ -4612,7 +4733,7 @@
         <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -4687,7 +4808,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40318</v>
       </c>
@@ -4698,7 +4819,7 @@
         <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
         <v>80</v>
@@ -4773,7 +4894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>40360</v>
       </c>
@@ -4784,7 +4905,7 @@
         <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
         <v>92</v>
@@ -4859,7 +4980,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>40476</v>
       </c>
@@ -4870,7 +4991,7 @@
         <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
         <v>76</v>
@@ -4945,7 +5066,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>39673</v>
       </c>
@@ -4956,7 +5077,7 @@
         <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
         <v>56</v>
@@ -5031,7 +5152,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>40212</v>
       </c>
@@ -5042,7 +5163,7 @@
         <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
         <v>44</v>
@@ -5117,7 +5238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>40302</v>
       </c>
@@ -5128,7 +5249,7 @@
         <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
@@ -5203,7 +5324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>40390</v>
       </c>
@@ -5214,7 +5335,7 @@
         <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
         <v>28</v>
@@ -5289,7 +5410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>40395</v>
       </c>
@@ -5300,7 +5421,7 @@
         <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
         <v>72</v>
@@ -5375,7 +5496,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="15.75" thickBot="1">
+    <row r="52" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>40479</v>
       </c>
@@ -5386,7 +5507,7 @@
         <v>107</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>84</v>
@@ -5461,7 +5582,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>40335</v>
       </c>
@@ -5472,7 +5593,7 @@
         <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E53" t="s">
         <v>88</v>
@@ -5547,7 +5668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>40440</v>
       </c>
@@ -5558,7 +5679,7 @@
         <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E54" t="s">
         <v>96</v>
@@ -5633,7 +5754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>40473</v>
       </c>
@@ -5644,7 +5765,7 @@
         <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
         <v>100</v>
@@ -5719,7 +5840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>40478</v>
       </c>
@@ -5730,7 +5851,7 @@
         <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E56" t="s">
         <v>64</v>
@@ -5805,7 +5926,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>40228</v>
       </c>
@@ -5816,7 +5937,7 @@
         <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
         <v>24</v>
@@ -5891,7 +6012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>40295</v>
       </c>
@@ -5902,7 +6023,7 @@
         <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s">
         <v>52</v>
@@ -5977,7 +6098,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>39689</v>
       </c>
@@ -5988,7 +6109,7 @@
         <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E59" t="s">
         <v>48</v>
@@ -6063,7 +6184,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="15.75" thickBot="1">
+    <row r="60" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>40482</v>
       </c>
@@ -6074,7 +6195,7 @@
         <v>112</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>68</v>
@@ -6149,7 +6270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>39813</v>
       </c>
@@ -6235,7 +6356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>39827</v>
       </c>
@@ -6321,7 +6442,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>39988</v>
       </c>
@@ -6407,7 +6528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>40318</v>
       </c>
@@ -6493,7 +6614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>40360</v>
       </c>
@@ -6579,7 +6700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>40476</v>
       </c>
@@ -6665,7 +6786,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>39674</v>
       </c>
@@ -6751,7 +6872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>40212</v>
       </c>
@@ -6837,7 +6958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>40302</v>
       </c>
@@ -6923,7 +7044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>40390</v>
       </c>
@@ -7009,7 +7130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>40395</v>
       </c>
@@ -7095,7 +7216,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="15.75" thickBot="1">
+    <row r="72" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>40479</v>
       </c>
@@ -7181,7 +7302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>40335</v>
       </c>
@@ -7267,7 +7388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>40440</v>
       </c>
@@ -7353,7 +7474,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>40473</v>
       </c>
@@ -7439,7 +7560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>40478</v>
       </c>
@@ -7525,7 +7646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>40228</v>
       </c>
@@ -7611,7 +7732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>40295</v>
       </c>
@@ -7697,7 +7818,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>39689</v>
       </c>
@@ -7783,7 +7904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>40482</v>
       </c>
@@ -7869,7 +7990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="5:28">
+    <row r="81" spans="5:28" x14ac:dyDescent="0.2">
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -7896,7 +8017,7 @@
       <c r="AB81" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:AB81">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB81">
     <sortCondition ref="D2:D81"/>
     <sortCondition ref="C2:C81"/>
   </sortState>
@@ -7905,7 +8026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -7913,9 +8034,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -7933,7 +8054,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -7959,7 +8080,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!N2</f>
         <v>16</v>
@@ -7993,7 +8114,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!N3</f>
         <v>1355.5</v>
@@ -8027,7 +8148,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!N4</f>
         <v>45.5</v>
@@ -8061,7 +8182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!N5</f>
         <v>111</v>
@@ -8095,7 +8216,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!N6</f>
         <v>36</v>
@@ -8129,7 +8250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!N7</f>
         <v>12</v>
@@ -8163,7 +8284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!N8</f>
         <v>19</v>
@@ -8197,7 +8318,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!N9</f>
         <v>24</v>
@@ -8228,7 +8349,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!N10</f>
         <v>67</v>
@@ -8250,7 +8371,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!N11</f>
         <v>67</v>
@@ -8272,7 +8393,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!N12</f>
         <v>911</v>
@@ -8294,7 +8415,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!N13</f>
         <v>108</v>
@@ -8328,7 +8449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -8336,9 +8457,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -8356,7 +8477,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -8382,7 +8503,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!O2</f>
         <v>66</v>
@@ -8416,7 +8537,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!O3</f>
         <v>16498.5</v>
@@ -8450,7 +8571,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!O4</f>
         <v>487</v>
@@ -8484,7 +8605,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!O5</f>
         <v>3192</v>
@@ -8518,7 +8639,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!O6</f>
         <v>507</v>
@@ -8552,7 +8673,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!O7</f>
         <v>43</v>
@@ -8586,7 +8707,7 @@
         <v>734.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!O8</f>
         <v>75</v>
@@ -8620,7 +8741,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!O9</f>
         <v>284</v>
@@ -8651,7 +8772,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!O10</f>
         <v>888.5</v>
@@ -8673,7 +8794,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!O11</f>
         <v>4258</v>
@@ -8695,7 +8816,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!O12</f>
         <v>15815.5</v>
@@ -8717,7 +8838,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!O13</f>
         <v>4609</v>
@@ -8751,7 +8872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -8759,9 +8880,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -8779,7 +8900,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -8805,7 +8926,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!P2</f>
         <v>16</v>
@@ -8839,7 +8960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!P3</f>
         <v>122</v>
@@ -8873,7 +8994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!P4</f>
         <v>33</v>
@@ -8907,7 +9028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!P5</f>
         <v>48.5</v>
@@ -8941,7 +9062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!P6</f>
         <v>18</v>
@@ -8975,7 +9096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!P7</f>
         <v>15</v>
@@ -9009,7 +9130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!P8</f>
         <v>18</v>
@@ -9043,7 +9164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!P9</f>
         <v>23.5</v>
@@ -9074,7 +9195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!P10</f>
         <v>35</v>
@@ -9096,7 +9217,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!P11</f>
         <v>37</v>
@@ -9118,7 +9239,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!P12</f>
         <v>170</v>
@@ -9140,7 +9261,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!P13</f>
         <v>34</v>
@@ -9174,7 +9295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -9182,9 +9303,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -9202,7 +9323,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -9228,7 +9349,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!Q2</f>
         <v>25</v>
@@ -9262,7 +9383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!Q3</f>
         <v>60</v>
@@ -9296,7 +9417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!Q4</f>
         <v>34</v>
@@ -9330,7 +9451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!Q5</f>
         <v>36.5</v>
@@ -9364,7 +9485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!Q6</f>
         <v>28.5</v>
@@ -9398,7 +9519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!Q7</f>
         <v>22.5</v>
@@ -9432,7 +9553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!Q8</f>
         <v>23.5</v>
@@ -9466,7 +9587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!Q9</f>
         <v>27</v>
@@ -9497,7 +9618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!Q10</f>
         <v>41</v>
@@ -9519,7 +9640,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!Q11</f>
         <v>29.5</v>
@@ -9541,7 +9662,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!Q12</f>
         <v>68.5</v>
@@ -9563,7 +9684,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!Q13</f>
         <v>29.5</v>
@@ -9597,7 +9718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -9605,9 +9726,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -9625,7 +9746,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -9651,7 +9772,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!R2</f>
         <v>23</v>
@@ -9685,7 +9806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!R3</f>
         <v>66.5</v>
@@ -9719,7 +9840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!R4</f>
         <v>35</v>
@@ -9753,7 +9874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!R5</f>
         <v>44</v>
@@ -9787,7 +9908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!R6</f>
         <v>30</v>
@@ -9821,7 +9942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!R7</f>
         <v>13</v>
@@ -9855,7 +9976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!R8</f>
         <v>28</v>
@@ -9889,7 +10010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!R9</f>
         <v>25</v>
@@ -9920,7 +10041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!R10</f>
         <v>41</v>
@@ -9942,7 +10063,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!R11</f>
         <v>26</v>
@@ -9964,7 +10085,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!R12</f>
         <v>61.5</v>
@@ -9986,7 +10107,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!R13</f>
         <v>20</v>
@@ -10020,7 +10141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -10028,9 +10149,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -10048,7 +10169,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -10074,7 +10195,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!S2</f>
         <v>12</v>
@@ -10108,7 +10229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!S3</f>
         <v>54</v>
@@ -10142,7 +10263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!S4</f>
         <v>21</v>
@@ -10176,7 +10297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!S5</f>
         <v>20</v>
@@ -10210,7 +10331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!S6</f>
         <v>21</v>
@@ -10244,7 +10365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!S7</f>
         <v>12</v>
@@ -10278,7 +10399,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!S8</f>
         <v>17</v>
@@ -10312,7 +10433,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!S9</f>
         <v>20.5</v>
@@ -10343,7 +10464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!S10</f>
         <v>29</v>
@@ -10365,7 +10486,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!S11</f>
         <v>17</v>
@@ -10387,7 +10508,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!S12</f>
         <v>54</v>
@@ -10409,7 +10530,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!S13</f>
         <v>17</v>
@@ -10443,7 +10564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -10451,9 +10572,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -10471,7 +10592,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -10497,7 +10618,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f>Sheet1!T2</f>
         <v>24</v>
@@ -10531,7 +10652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!T3</f>
         <v>78</v>
@@ -10565,7 +10686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!T4</f>
         <v>51.5</v>
@@ -10599,7 +10720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!T5</f>
         <v>39</v>
@@ -10633,7 +10754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!T6</f>
         <v>30</v>
@@ -10667,7 +10788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!T7</f>
         <v>13</v>
@@ -10701,7 +10822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!T8</f>
         <v>30</v>
@@ -10735,7 +10856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!T9</f>
         <v>30.5</v>
@@ -10766,7 +10887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!T10</f>
         <v>53</v>
@@ -10788,7 +10909,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!T11</f>
         <v>33.5</v>
@@ -10810,7 +10931,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!T12</f>
         <v>103</v>
@@ -10832,7 +10953,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!T13</f>
         <v>33.5</v>
@@ -10866,7 +10987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -10874,9 +10995,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -10894,7 +11015,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -10920,7 +11041,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!U2</f>
         <v>14</v>
@@ -10954,7 +11075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!U3</f>
         <v>77</v>
@@ -10988,7 +11109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!U4</f>
         <v>20</v>
@@ -11022,7 +11143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!U5</f>
         <v>28</v>
@@ -11056,7 +11177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!U6</f>
         <v>22</v>
@@ -11090,7 +11211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!U7</f>
         <v>10</v>
@@ -11124,7 +11245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!U8</f>
         <v>19</v>
@@ -11158,7 +11279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!U9</f>
         <v>23</v>
@@ -11189,7 +11310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!U10</f>
         <v>36</v>
@@ -11211,7 +11332,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!U11</f>
         <v>27</v>
@@ -11233,7 +11354,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!U12</f>
         <v>93</v>
@@ -11255,7 +11376,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!U13</f>
         <v>23</v>
@@ -11289,7 +11410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -11297,9 +11418,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -11317,7 +11438,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -11343,7 +11464,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!V2</f>
         <v>23</v>
@@ -11377,7 +11498,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!V3</f>
         <v>9553.5</v>
@@ -11411,7 +11532,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!V4</f>
         <v>181</v>
@@ -11445,7 +11566,7 @@
         <v>1039.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!V5</f>
         <v>3066</v>
@@ -11479,7 +11600,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!V6</f>
         <v>317</v>
@@ -11513,7 +11634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!V7</f>
         <v>12.5</v>
@@ -11547,7 +11668,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!V8</f>
         <v>62</v>
@@ -11581,7 +11702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!V9</f>
         <v>116.5</v>
@@ -11612,7 +11733,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!V10</f>
         <v>366</v>
@@ -11634,7 +11755,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!V11</f>
         <v>1060.5</v>
@@ -11656,7 +11777,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!V12</f>
         <v>12889</v>
@@ -11678,7 +11799,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!V13</f>
         <v>1983</v>
@@ -11712,7 +11833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -11720,9 +11841,9 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -11740,7 +11861,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -11766,7 +11887,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!W2</f>
         <v>19</v>
@@ -11800,7 +11921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!W3</f>
         <v>405.5</v>
@@ -11834,7 +11955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!W4</f>
         <v>32</v>
@@ -11868,7 +11989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!W5</f>
         <v>24</v>
@@ -11902,7 +12023,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!W6</f>
         <v>22.5</v>
@@ -11936,7 +12057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!W7</f>
         <v>19</v>
@@ -11970,7 +12091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!W8</f>
         <v>23</v>
@@ -12004,7 +12125,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!W9</f>
         <v>22.5</v>
@@ -12035,7 +12156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!W10</f>
         <v>35</v>
@@ -12057,7 +12178,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!W11</f>
         <v>31</v>
@@ -12079,7 +12200,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!W12</f>
         <v>229</v>
@@ -12101,7 +12222,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!W13</f>
         <v>23</v>
@@ -12135,17 +12256,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>113</v>
       </c>
@@ -12163,7 +12284,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -12189,7 +12310,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!F2</f>
         <v>12</v>
@@ -12223,7 +12344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!F3</f>
         <v>66</v>
@@ -12257,7 +12378,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!F4</f>
         <v>18.5</v>
@@ -12291,7 +12412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!F5</f>
         <v>29.5</v>
@@ -12325,7 +12446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!F6</f>
         <v>18.5</v>
@@ -12359,7 +12480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!F7</f>
         <v>10.5</v>
@@ -12393,7 +12514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!F8</f>
         <v>14</v>
@@ -12427,7 +12548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!F9</f>
         <v>13</v>
@@ -12458,7 +12579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!F10</f>
         <v>25</v>
@@ -12480,7 +12601,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!F11</f>
         <v>22</v>
@@ -12502,7 +12623,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!F12</f>
         <v>58.5</v>
@@ -12524,7 +12645,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!F13</f>
         <v>40.5</v>
@@ -12558,7 +12679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -12566,9 +12687,9 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -12586,7 +12707,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -12612,7 +12733,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!X2</f>
         <v>13</v>
@@ -12646,7 +12767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!X3</f>
         <v>97.5</v>
@@ -12680,7 +12801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!X4</f>
         <v>24</v>
@@ -12714,7 +12835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!X5</f>
         <v>29</v>
@@ -12748,7 +12869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!X6</f>
         <v>18</v>
@@ -12782,7 +12903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!X7</f>
         <v>9</v>
@@ -12816,7 +12937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!X8</f>
         <v>15</v>
@@ -12850,7 +12971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!X9</f>
         <v>21</v>
@@ -12881,7 +13002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!X10</f>
         <v>29</v>
@@ -12903,7 +13024,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!X11</f>
         <v>24</v>
@@ -12925,7 +13046,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!X12</f>
         <v>172</v>
@@ -12947,7 +13068,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!X13</f>
         <v>22</v>
@@ -12981,7 +13102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -12989,9 +13110,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -13009,7 +13130,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -13035,7 +13156,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!Y2</f>
         <v>14.5</v>
@@ -13069,7 +13190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!Y3</f>
         <v>46</v>
@@ -13103,7 +13224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!Y4</f>
         <v>19</v>
@@ -13137,7 +13258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!Y5</f>
         <v>24</v>
@@ -13171,7 +13292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!Y6</f>
         <v>24</v>
@@ -13205,7 +13326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!Y7</f>
         <v>10</v>
@@ -13239,7 +13360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!Y8</f>
         <v>13</v>
@@ -13273,7 +13394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!Y9</f>
         <v>14</v>
@@ -13304,7 +13425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!Y10</f>
         <v>46.5</v>
@@ -13326,7 +13447,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!Y11</f>
         <v>24</v>
@@ -13348,7 +13469,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!Y12</f>
         <v>69.5</v>
@@ -13370,7 +13491,7 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!Y13</f>
         <v>19.5</v>
@@ -13404,7 +13525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -13412,9 +13533,9 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -13432,7 +13553,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -13458,7 +13579,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!Z2</f>
         <v>16</v>
@@ -13492,7 +13613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!Z3</f>
         <v>92</v>
@@ -13526,7 +13647,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!Z4</f>
         <v>17</v>
@@ -13560,7 +13681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!Z5</f>
         <v>25</v>
@@ -13594,7 +13715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!Z6</f>
         <v>26</v>
@@ -13628,7 +13749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!Z7</f>
         <v>11</v>
@@ -13662,7 +13783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!Z8</f>
         <v>17</v>
@@ -13696,7 +13817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!Z9</f>
         <v>15</v>
@@ -13727,7 +13848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!Z10</f>
         <v>30</v>
@@ -13749,7 +13870,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!Z11</f>
         <v>22</v>
@@ -13771,7 +13892,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!Z12</f>
         <v>71</v>
@@ -13793,7 +13914,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!Z13</f>
         <v>21</v>
@@ -13815,7 +13936,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>9</v>
       </c>
@@ -13832,7 +13953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -13840,9 +13961,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -13860,7 +13981,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -13886,7 +14007,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!AA2</f>
         <v>16</v>
@@ -13920,7 +14041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!AA3</f>
         <v>48</v>
@@ -13954,7 +14075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!AA4</f>
         <v>11</v>
@@ -13988,7 +14109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!AA5</f>
         <v>28</v>
@@ -14022,7 +14143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!AA6</f>
         <v>21</v>
@@ -14056,7 +14177,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!AA7</f>
         <v>14</v>
@@ -14090,7 +14211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!AA8</f>
         <v>18</v>
@@ -14124,7 +14245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!AA9</f>
         <v>20</v>
@@ -14155,7 +14276,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!AA10</f>
         <v>29.5</v>
@@ -14177,7 +14298,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!AA11</f>
         <v>31</v>
@@ -14199,7 +14320,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!AA12</f>
         <v>50</v>
@@ -14221,7 +14342,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!AA13</f>
         <v>23.5</v>
@@ -14255,7 +14376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -14263,9 +14384,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
@@ -14283,7 +14404,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>118</v>
       </c>
@@ -14309,7 +14430,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <f>Sheet1!AB2</f>
         <v>19</v>
@@ -14343,7 +14464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f>Sheet1!AB3</f>
         <v>114.5</v>
@@ -14377,7 +14498,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>Sheet1!AB4</f>
         <v>23.5</v>
@@ -14411,7 +14532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f>Sheet1!AB5</f>
         <v>33.5</v>
@@ -14445,7 +14566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f>Sheet1!AB6</f>
         <v>20</v>
@@ -14479,7 +14600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f>Sheet1!AB7</f>
         <v>18</v>
@@ -14513,7 +14634,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f>Sheet1!AB8</f>
         <v>20</v>
@@ -14547,7 +14668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f>Sheet1!AB9</f>
         <v>30</v>
@@ -14578,7 +14699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f>Sheet1!AB10</f>
         <v>21</v>
@@ -14600,7 +14721,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f>Sheet1!AB11</f>
         <v>27</v>
@@ -14622,7 +14743,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f>Sheet1!AB12</f>
         <v>78</v>
@@ -14644,7 +14765,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f>Sheet1!AB13</f>
         <v>24.5</v>
@@ -14678,7 +14799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:Z80"/>
   <sheetViews>
@@ -14686,14 +14807,14 @@
       <selection activeCell="D2" sqref="D2:Z80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -14773,7 +14894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -14853,7 +14974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -14933,7 +15054,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -15013,7 +15134,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -15093,7 +15214,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -15173,7 +15294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -15253,7 +15374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -15333,7 +15454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -15413,7 +15534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -15493,7 +15614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -15573,7 +15694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -15653,7 +15774,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1">
+    <row r="13" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>107</v>
       </c>
@@ -15733,7 +15854,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -15813,7 +15934,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -15893,7 +16014,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -15973,7 +16094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -16053,7 +16174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -16133,7 +16254,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -16213,7 +16334,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -16293,7 +16414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1">
+    <row r="21" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>112</v>
       </c>
@@ -16373,7 +16494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -16453,7 +16574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -16533,7 +16654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -16613,7 +16734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -16693,7 +16814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -16773,7 +16894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -16853,7 +16974,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -16933,7 +17054,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -17013,7 +17134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -17093,7 +17214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -17173,7 +17294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>107</v>
       </c>
@@ -17253,7 +17374,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15.75" thickBot="1">
+    <row r="33" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>107</v>
       </c>
@@ -17333,7 +17454,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -17413,7 +17534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -17493,7 +17614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -17573,7 +17694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -17653,7 +17774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -17733,7 +17854,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -17813,7 +17934,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="15.75" thickBot="1">
+    <row r="40" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>112</v>
       </c>
@@ -17893,7 +18014,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>110</v>
       </c>
@@ -17973,7 +18094,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -18053,7 +18174,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -18133,7 +18254,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -18213,7 +18334,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>110</v>
       </c>
@@ -18293,7 +18414,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>110</v>
       </c>
@@ -18373,7 +18494,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -18453,7 +18574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -18533,7 +18654,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -18613,7 +18734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -18693,7 +18814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -18773,7 +18894,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15.75" thickBot="1">
+    <row r="52" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>107</v>
       </c>
@@ -18853,7 +18974,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -18933,7 +19054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -19013,7 +19134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -19093,7 +19214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -19173,7 +19294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -19253,7 +19374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -19333,7 +19454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -19413,7 +19534,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="15.75" thickBot="1">
+    <row r="60" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>112</v>
       </c>
@@ -19493,7 +19614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -19573,7 +19694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -19653,7 +19774,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -19733,7 +19854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -19813,7 +19934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -19893,7 +20014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -19973,7 +20094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>107</v>
       </c>
@@ -20053,7 +20174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -20133,7 +20254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>107</v>
       </c>
@@ -20213,7 +20334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -20293,7 +20414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>107</v>
       </c>
@@ -20373,7 +20494,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="15.75" thickBot="1">
+    <row r="72" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>107</v>
       </c>
@@ -20453,7 +20574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>111</v>
       </c>
@@ -20533,7 +20654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>111</v>
       </c>
@@ -20613,7 +20734,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>111</v>
       </c>
@@ -20693,7 +20814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>111</v>
       </c>
@@ -20773,7 +20894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>109</v>
       </c>
@@ -20853,7 +20974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>109</v>
       </c>
@@ -20933,7 +21054,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>109</v>
       </c>
@@ -21013,7 +21134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>112</v>
       </c>
@@ -21094,7 +21215,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Z80">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z80">
     <sortCondition ref="B2:B80"/>
     <sortCondition ref="A2:A80"/>
     <sortCondition ref="C2:C80"/>
@@ -21104,7 +21225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -21112,9 +21233,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>113</v>
       </c>
@@ -21132,7 +21253,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -21158,7 +21279,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!G2</f>
         <v>14</v>
@@ -21192,7 +21313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!G3</f>
         <v>1197.5</v>
@@ -21226,7 +21347,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!G4</f>
         <v>37.5</v>
@@ -21260,7 +21381,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!G5</f>
         <v>997</v>
@@ -21294,7 +21415,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!G6</f>
         <v>41</v>
@@ -21328,7 +21449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!G7</f>
         <v>12</v>
@@ -21362,7 +21483,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!G8</f>
         <v>19</v>
@@ -21396,7 +21517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!G9</f>
         <v>57</v>
@@ -21427,7 +21548,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!G10</f>
         <v>63</v>
@@ -21449,7 +21570,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!G11</f>
         <v>221</v>
@@ -21471,7 +21592,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!G12</f>
         <v>1057.5</v>
@@ -21493,7 +21614,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!G13</f>
         <v>679</v>
@@ -21527,7 +21648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -21535,9 +21656,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>113</v>
       </c>
@@ -21555,7 +21676,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -21581,7 +21702,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!H2</f>
         <v>15</v>
@@ -21615,7 +21736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!H3</f>
         <v>140</v>
@@ -21649,7 +21770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!H4</f>
         <v>17</v>
@@ -21683,7 +21804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!H5</f>
         <v>27</v>
@@ -21717,7 +21838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!H6</f>
         <v>21.5</v>
@@ -21751,7 +21872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!H7</f>
         <v>11</v>
@@ -21785,7 +21906,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!H8</f>
         <v>21</v>
@@ -21819,7 +21940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!H9</f>
         <v>18.5</v>
@@ -21850,7 +21971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!H10</f>
         <v>30.5</v>
@@ -21872,7 +21993,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!H11</f>
         <v>22</v>
@@ -21894,7 +22015,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!H12</f>
         <v>438</v>
@@ -21916,7 +22037,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!H13</f>
         <v>43</v>
@@ -21950,7 +22071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -21958,9 +22079,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>113</v>
       </c>
@@ -21978,7 +22099,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -22004,7 +22125,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!I2</f>
         <v>18</v>
@@ -22038,7 +22159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!I3</f>
         <v>195.5</v>
@@ -22072,7 +22193,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!I4</f>
         <v>49</v>
@@ -22106,7 +22227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!I5</f>
         <v>36.5</v>
@@ -22140,7 +22261,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!I6</f>
         <v>22.5</v>
@@ -22174,7 +22295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!I7</f>
         <v>9</v>
@@ -22208,7 +22329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!I8</f>
         <v>18</v>
@@ -22242,7 +22363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!I9</f>
         <v>43</v>
@@ -22273,7 +22394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!I10</f>
         <v>76</v>
@@ -22295,7 +22416,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!I11</f>
         <v>70</v>
@@ -22317,7 +22438,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!I12</f>
         <v>177</v>
@@ -22339,7 +22460,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!I13</f>
         <v>50.5</v>
@@ -22373,7 +22494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -22381,9 +22502,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>113</v>
       </c>
@@ -22401,7 +22522,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -22427,7 +22548,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!J2</f>
         <v>22</v>
@@ -22461,7 +22582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!J3</f>
         <v>57.5</v>
@@ -22495,7 +22616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!J4</f>
         <v>37</v>
@@ -22529,7 +22650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!J5</f>
         <v>34</v>
@@ -22563,7 +22684,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!J6</f>
         <v>28</v>
@@ -22597,7 +22718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!J7</f>
         <v>22</v>
@@ -22631,7 +22752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!J8</f>
         <v>24</v>
@@ -22665,7 +22786,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!J9</f>
         <v>27</v>
@@ -22696,7 +22817,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!J10</f>
         <v>39</v>
@@ -22718,7 +22839,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!J11</f>
         <v>26.5</v>
@@ -22740,7 +22861,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!J12</f>
         <v>57</v>
@@ -22762,7 +22883,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!J13</f>
         <v>27</v>
@@ -22796,7 +22917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -22804,9 +22925,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>113</v>
       </c>
@@ -22824,7 +22945,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -22850,7 +22971,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!K2</f>
         <v>17</v>
@@ -22884,7 +23005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!K3</f>
         <v>69</v>
@@ -22918,7 +23039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!K4</f>
         <v>29</v>
@@ -22952,7 +23073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!K5</f>
         <v>45</v>
@@ -22986,7 +23107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!K6</f>
         <v>20</v>
@@ -23020,7 +23141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!K7</f>
         <v>22</v>
@@ -23054,7 +23175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!K8</f>
         <v>16</v>
@@ -23088,7 +23209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!K9</f>
         <v>26</v>
@@ -23119,7 +23240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!K10</f>
         <v>22</v>
@@ -23141,7 +23262,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!K11</f>
         <v>35</v>
@@ -23163,7 +23284,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!K12</f>
         <v>77</v>
@@ -23185,7 +23306,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!K13</f>
         <v>43</v>
@@ -23219,7 +23340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -23227,9 +23348,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>113</v>
       </c>
@@ -23247,7 +23368,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -23273,7 +23394,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!L2</f>
         <v>17</v>
@@ -23307,7 +23428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!L3</f>
         <v>50.5</v>
@@ -23341,7 +23462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!L4</f>
         <v>25</v>
@@ -23375,7 +23496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!L5</f>
         <v>25</v>
@@ -23409,7 +23530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!L6</f>
         <v>25</v>
@@ -23443,7 +23564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!L7</f>
         <v>14</v>
@@ -23477,7 +23598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!L8</f>
         <v>19</v>
@@ -23511,7 +23632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!L9</f>
         <v>18</v>
@@ -23542,7 +23663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!L10</f>
         <v>28</v>
@@ -23564,7 +23685,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!L11</f>
         <v>29</v>
@@ -23586,7 +23707,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!L12</f>
         <v>48.5</v>
@@ -23608,7 +23729,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!L13</f>
         <v>21.5</v>
@@ -23642,7 +23763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -23650,9 +23771,9 @@
       <selection activeCell="A3" sqref="A3:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>113</v>
       </c>
@@ -23670,7 +23791,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
@@ -23696,7 +23817,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f>Sheet1!M2</f>
         <v>11</v>
@@ -23730,7 +23851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f>Sheet1!M3</f>
         <v>53</v>
@@ -23764,7 +23885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>Sheet1!M4</f>
         <v>19</v>
@@ -23798,7 +23919,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f>Sheet1!M5</f>
         <v>23.5</v>
@@ -23832,7 +23953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f>Sheet1!M6</f>
         <v>19</v>
@@ -23866,7 +23987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f>Sheet1!M7</f>
         <v>12.5</v>
@@ -23900,7 +24021,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f>Sheet1!M8</f>
         <v>15</v>
@@ -23934,7 +24055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f>Sheet1!M9</f>
         <v>14</v>
@@ -23965,7 +24086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f>Sheet1!M10</f>
         <v>29</v>
@@ -23987,7 +24108,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f>Sheet1!M11</f>
         <v>17</v>
@@ -24009,7 +24130,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f>Sheet1!M12</f>
         <v>36</v>
@@ -24031,7 +24152,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f>Sheet1!M13</f>
         <v>15</v>
